--- a/services/search_result_analysis.xlsx
+++ b/services/search_result_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/embedding_rerank_retrieval/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D077C41F-0B8B-2E4D-A80A-D7594E9097AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F97FC33-8957-FA4C-B55B-B4A672F50CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="760" windowWidth="29020" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>80年代，日本工业产品的质量稳定性和生产效率整体都赶上了欧美主要发达国家，这并不是半导体一个行业的现象。战后日本不断从美国和欧洲获得各种新技术，同时通过价格优势不断占领美国市场。1985年广场协议之前，日元汇率比较低，日本的劳动力成本也低于欧美，因此有价格优势。日本的企业管理特点也是其能赶超欧美的原因。从50年代起，日本企业就开始整体质量管理体系（TQC）。70年代，很多日本企业开展ND（No</t>
   </si>
   <si>
-    <t>日美半导体协议对日本半导体产业有何影响？</t>
-  </si>
-  <si>
     <t>上世纪90年代，日本半导体企业在全球的影响力缓慢下降。背后有三个主要的原因：一是美国的阻挠，其标志为1986年日美两国政府签订的“日美半导体协议”。这让日本政府无法继续大规模支持半导体产业，导致日本企业扩展速度放缓。二是90年代日本泡沫经济破灭，日本企业同时面临多重压力：日元大幅升值、日本国内市场饱和、企业盈利能力严重下降。这就造成日本半导体企业设备投资不足，持续研发的能力下降。</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>不仅日本不会恢复过去的荣光，美国也不会。80年代，半导体产业基本是美日两国企业的天下。现在，全世界主要国家的企业都在这个行业角逐。这个国际的大竞争和大分工在90年代就开始了。例如，在前十大半导体软件企业中，美国有四家，英国有两家，中国有两家，加拿大有一家，以色列有一家。分别是ARM（英国），Synopsys（美国），Cadence Design Systems（美国），Imagination</t>
   </si>
   <si>
-    <t>请列举三个美国的科技公司。</t>
-  </si>
-  <si>
     <t>Technologies（英国），CEVA（以色列），SST（美国），VeriSilicon（中国），Alphawave（加拿大）eMemory Technology（中国台湾），Rambus（美国）。</t>
   </si>
   <si>
@@ -533,9 +527,6 @@
     <t>从市场端来看，半导体材料市场需求强劲，但受制需求，前景极具不确定性，相关企业极有可能受到冲击。TechCet数据显示，2022年半导体材料市场约660亿美元，相比2021年需求增长8%，CMP研磨垫、特种气体、前驱体材料、SOI晶圆等材料细分市场同比增长超过两位数。2023年内存开工率下降将抑制前驱体材料、特种气体、清洁化学剂、电容器材料等市场，而10nm以下先进制程节点会是2023年材料产量主要增长点。[26]</t>
   </si>
   <si>
-    <t>日本半导体设备在国内市场的占比是多少？</t>
-  </si>
-  <si>
     <t>日本半导体材料代表公司及现状（数据均为可追溯最近数据）[27]~[36]，制表丨果壳硬科技芯片制造过程中，涉及的制造设备包括薄膜沉积设备（27%）、刻蚀设备（22%）、量测设备（13%）、光刻机（20%）、化学机械抛光CMP设备（4%）、清洗设备（4%）、涂胶显影机（3%）、热处理设备（3%）、离子注入设备（3%）、去胶设备（1%）[37]，日本基本掌握全部设备，而国产设备在国内市场仅占17.2%。[38]</t>
   </si>
   <si>
@@ -653,9 +644,6 @@
     <t>这种“闭门造车”的搞法，曾经造就了日本半导体“全产业链级”的辉煌，但在2000年之后，其反而变成了日本电子产业体系的最大软肋。美国和它的小弟们，究竟是如何抓住这个弱点最终战胜日本的？这是本篇文章试图解答的问题。01.穷追猛打：雷声大雨点小的贸易战和美苏争霸的剑拔弩张相比，美日的半导体的争霸在绝大多数时期，都是日本对美国的全方位碾压。</t>
   </si>
   <si>
-    <t>日本企业在全球半导体产业的地位如何？</t>
-  </si>
-  <si>
     <t>从产值上看，日本企业基本代表了全球半导体产业的半壁江山，面对日本人“价格永远低10%”的策略面前，美国企业毫无还手之力。从产品上看，大到汽车电冰箱小到电视收音机，基本都属于日本制造的代名词。而在普通人难以察觉的产业上游，更是造就了一个奇特的现象：大多数科技成果在美国诞生，做大做强的却是日本人。比如光刻机诞生在美国的GCA,、K&amp;S和Kasper几家公司，但卡脖子的确是尼康。又比如美国的仙童是全球电子产业的祖师爷，却差点被富士通收购。索尼TR-1825收音机，1970年问世</t>
   </si>
   <si>
@@ -671,9 +659,6 @@
     <t>面对日本企业立竿见影的优势，美国开启了声势浩大的反攻：80年代初，英特尔牵头硅谷的半导体企业成立行业协会（SIA），通过坚持不懈的游说，在1985年抛出了一个让华盛顿无法拒绝的理由、也是中国人民都非常熟悉的套路：日本半导体崛起将威胁美国国家安全。</t>
   </si>
   <si>
-    <t>美日半导体协议的主要内容是什么？</t>
-  </si>
-  <si>
     <t>在这之前，美国政府一直以“自由市场”为原则不干涉企业间的竞争，但“国家安全”让华盛顿难以淡定。1986年春，日本被认定DRAM倾销；9月，《美日半导体协议》签署，日本被要求开放半导体市场，保证5年内国外公司获得20%市场份额；随后，日本出口的3亿美元芯片被征收100%惩罚性关税，富士通收购仙童半导体被否决。</t>
   </si>
   <si>
@@ -1199,9 +1184,6 @@
     <t>尽管在芯片设计等领域日渐失势，但日本半导体供应链仍为全世界提供超过1/2的半导体材料和1/3的半导体制造设备，把握绝大多数芯片企业的核心命脉。近日美国半导体产业调查公司VLSI Research发布2018年全球TOP 15半导体生产设备厂商，其中日本厂商独占7席。日本半导体60年兴衰史！从王者跌落神坛，却靠两样东西制霸全球</t>
   </si>
   <si>
-    <t>日本在全球半导体材料行业的地位如何？</t>
-  </si>
-  <si>
     <t>1、控场硅晶圆和光罩技术生产半导体芯片需要19种必备材料，其中多数均有极高技术壁垒。而日本在硅晶圆、合成半导体晶圆、光罩等14种重要材料方面分别占据超过50%的份额，在全球半导体材料行业长期保持着绝对优势。日本半导体60年兴衰史！从王者跌落神坛，却靠两样东西制霸全球其中，有一家日企的名字或许不如软银、索尼、任天堂那般广为人知，却在2018年日企排行榜上高居榜首，它就是全球最大的有机硅供应商——信越化学。</t>
   </si>
   <si>
@@ -1376,9 +1358,6 @@
     <t>而中美企业轮番上阵“挖墙脚”，更使得原本就人才告急的日本雪上加霜。美国存储巨头美光在取消与英特尔合作、宣布推进闪存开发后，以800万日元以上的高薪待遇狂挖东芝技术人员。中国紫光集团旗下的半导体存储器开发企业长江存储科技在川崎建设记忆体工厂并启动招聘。与此同时，中国市场对日本半导体市场影响力日益增加。前两个月据财政部表示，日本对中国出口额达到100亿美元，汽车和芯片制造设备的出货量增加。而当中国诸多企业因为春节而闭门歇业时，日本的经济受出货量的拖累而放缓。</t>
   </si>
   <si>
-    <t>日本半导体业的兴衰原因是什么？</t>
-  </si>
-  <si>
     <t>结语：日本芯片启示录达尔文曾说过：“能够生存下来的物种，并不是那些最强壮的，也不是那些最聪明的，而是那些对变化作出快速反应的物种。”日本用二三十年站到世界半导体界的巅峰，又在三十年间从全球TOP半导体供应商榜单中消失踪迹，邻国的境遇就仿佛一面镜子，我们从中可以看见希望，也可以看见警醒。</t>
   </si>
   <si>
@@ -1388,9 +1367,6 @@
     <t>尽管日本在AI时代算是迟到者，但它仍然牢牢扼住了全球半导体产业的咽喉——覆盖高中低端的材料和设备。而中国缺“芯”之痛最大的痛点恰恰在于此，我国拥有各国艳羡的庞大半导体市场，却缺乏自给自足的技术实力。只有攻破高端半导体材料的技术壁垒，最终打造完整的半导体产业链才成为可能。拘泥于技术上的高精尖、没有及时应对时代变化，没有保持对客户需求的高度敏感、内部官僚化决策缓慢等问题，让日本半导体的雄图为业随着泡沫经济的破碎而崩塌。</t>
   </si>
   <si>
-    <t>日本半导体企业如何保持竞争力？</t>
-  </si>
-  <si>
     <t>但我们不能忽视的是，如今仍然屹立着的日本半导体企业们，无不是经年累月持续投入研发，拥有一个或几个极具竞争力的核心产品，并保持着难以逾越的技术壁垒。掉队的日本，基于长期积累的技术基石和产学政三位一体的联合攻势，绝非没有在AI时代重新崛起的可能。时势造英雄，新的变革齿轮还在缓缓滚动，无论是昔日辉煌过的日本，还是背负“芯”痛而奋起直追的中国，都站在了改变命运的关键节点。</t>
   </si>
   <si>
@@ -1502,9 +1478,6 @@
     <t>如果说80年代是日本半导体灯火璀璨的十年，那么90年代则应了盛极必衰的说法，日本半导体仅用十年全线崩盘，逐渐成为原材料供应商，似乎再也回不到舞台中央。日本半导体的溃败，似乎是必然，但也存在着诸多偶然；其结果与美国的铁腕制裁直接相关，但也处处展现着日本人给自己埋下的祸端。这场美日半导体争端，也是全球范围内第一次被冠以“芯片战争”之名的国家贸易战。或许可以说，我们今天还生活在那场对垒的余波里，却又踏上了一场类似的征途。僵化的匠人VS“全球化绞肉机”</t>
   </si>
   <si>
-    <t>80年代日本半导体企业的问题是什么？</t>
-  </si>
-  <si>
     <t>IDM模式在半导体产业中的应用是什么？</t>
   </si>
   <si>
@@ -1533,9 +1506,6 @@
   </si>
   <si>
     <t>代工模式和半导体生产流程的分拆，另一个作用是打造了全球化的半导体产业链。各个国家与地区可以发挥自身独特的地缘优势、企业优势，找到最适合自身的产业切入点。借助全球化的东风，半导体产业链的成本被压缩到最低，迭代效率空前提高。这些都是单一日本企业难以复制和模仿的。</t>
-  </si>
-  <si>
-    <t>尼康在哪种技术上失去了优势？</t>
   </si>
   <si>
     <t>“全球化绞肉机”对日本半导体模式的打击，最有代表性的案例就是尼康与ASML的光刻机之战。我们知道今天光刻机已经完全是ASML的天下，但直到本世纪初，尼康依旧占据着全球超过50%的市场份额。然而，尼康押注发展了自身所擅长的“干式微影”技术，在ASML选择的光刻技术面前丧失了成本与技术优势。并且ASML搭建了模块化和标准化的外包模式，利用全球产业链生产出高精度、高吞吐量的光刻机产品。</t>
@@ -2002,6 +1972,46 @@
   </si>
   <si>
     <t>日本半导体产业在哪些方面仍有影响力？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日美半导体协议对日本半导体产业有何影响？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请列举三个美国的科技公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本半导体设备在国内市场的占比是多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本在全球半导体材料行业的地位如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80年代日本半导体企业的问题是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼康在哪种技术上失去了优势？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本企业在全球半导体产业的地位如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美日半导体协议的主要内容是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本半导体业的兴衰原因是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本半导体企业如何保持竞争力？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2046,7 +2056,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2068,6 +2078,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2110,6 +2126,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2415,17 +2432,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="74.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
@@ -2434,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24">
       <c r="A1" s="3" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2561,104 +2578,104 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2685,76 +2702,76 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" hidden="1">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2781,140 +2798,140 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" hidden="1">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" hidden="1">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>31</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" hidden="1">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" hidden="1">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" hidden="1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2941,76 +2958,76 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
         <v>41</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3037,44 +3054,44 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3101,12 +3118,12 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" hidden="1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3133,44 +3150,44 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
         <v>51</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3197,12 +3214,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" hidden="1">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3229,44 +3246,44 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" hidden="1">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3293,236 +3310,236 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" hidden="1">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
         <v>63</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" hidden="1">
       <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
         <v>65</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:10" hidden="1">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>67</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
         <v>71</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
         <v>73</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:10" hidden="1">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3549,12 +3566,12 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:10" hidden="1">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3581,204 +3598,204 @@
         <v>0.5</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:10" hidden="1">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
         <v>79</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" hidden="1">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
         <v>81</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:10" hidden="1">
       <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
         <v>83</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:10" hidden="1">
       <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
         <v>85</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:10" hidden="1">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
         <v>87</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
         <v>89</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3805,76 +3822,76 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1">
       <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
         <v>93</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
       <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>95</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3901,12 +3918,12 @@
         <v>0.5</v>
       </c>
       <c r="J46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:10" hidden="1">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -3933,76 +3950,76 @@
         <v>0.5</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:10" hidden="1">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
         <v>101</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+    </row>
+    <row r="49" spans="1:10" ht="24">
+      <c r="A49" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="24">
-      <c r="A49" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4029,12 +4046,12 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:10" hidden="1">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4061,12 +4078,12 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4093,12 +4110,12 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:10" hidden="1">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4125,12 +4142,12 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:10" hidden="1">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4157,12 +4174,12 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4189,12 +4206,12 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:10" hidden="1">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4221,12 +4238,12 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4253,12 +4270,12 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:10" hidden="1">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4285,12 +4302,12 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:10" hidden="1">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4317,12 +4334,12 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="24">
-      <c r="A60" s="4" t="s">
-        <v>650</v>
+      <c r="A60" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -4349,12 +4366,12 @@
         <v>0</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:10" hidden="1">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -4381,12 +4398,12 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:10" hidden="1">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -4413,12 +4430,12 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:10" hidden="1">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4445,12 +4462,12 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:10" hidden="1">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4477,12 +4494,12 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:10" hidden="1">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4509,12 +4526,12 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:10" hidden="1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4541,12 +4558,12 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:10" hidden="1">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4573,12 +4590,12 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="24">
       <c r="A68" s="6" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
@@ -4605,12 +4622,12 @@
         <v>0</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:10" hidden="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4637,12 +4654,12 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:10" hidden="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4669,12 +4686,12 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:10" hidden="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4701,12 +4718,12 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:10" hidden="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4733,12 +4750,12 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:10" hidden="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4765,12 +4782,12 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:10" hidden="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -4797,12 +4814,12 @@
         <v>0.5</v>
       </c>
       <c r="J74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:10" hidden="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4829,12 +4846,12 @@
         <v>0.5</v>
       </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="24">
       <c r="A76" s="6" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B76" s="5">
         <v>0</v>
@@ -4861,12 +4878,12 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:10" hidden="1">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -4893,12 +4910,12 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:10" hidden="1">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4925,12 +4942,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:10" hidden="1">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4957,12 +4974,12 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:10" hidden="1">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4989,76 +5006,76 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:10" hidden="1">
       <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="24">
+      <c r="A82" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="24">
-      <c r="A82" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0</v>
-      </c>
-      <c r="E82" s="4">
-        <v>0</v>
-      </c>
-      <c r="F82" s="5">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:10" hidden="1">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5085,12 +5102,12 @@
         <v>0.5</v>
       </c>
       <c r="J83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:10" hidden="1">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -5117,12 +5134,12 @@
         <v>0.5</v>
       </c>
       <c r="J84" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:10" hidden="1">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5149,12 +5166,12 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:10" hidden="1">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5181,12 +5198,12 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:10" hidden="1">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5213,12 +5230,12 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:10" hidden="1">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5245,12 +5262,12 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:10" hidden="1">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -5277,12 +5294,12 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:10" hidden="1">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -5309,12 +5326,12 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:10" hidden="1">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -5341,12 +5358,12 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:10" hidden="1">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -5373,12 +5390,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:10" hidden="1">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -5405,12 +5422,12 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:10" hidden="1">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -5437,12 +5454,12 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:10" hidden="1">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -5469,12 +5486,12 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:10" hidden="1">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -5501,12 +5518,12 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:10" hidden="1">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -5533,12 +5550,12 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -5565,12 +5582,12 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:10" hidden="1">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -5597,12 +5614,12 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:10" hidden="1">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -5629,12 +5646,12 @@
         <v>0.5</v>
       </c>
       <c r="J100" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:10" hidden="1">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -5661,12 +5678,12 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="24">
-      <c r="A102" s="4" t="s">
-        <v>205</v>
+      <c r="A102" s="6" t="s">
+        <v>648</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -5693,12 +5710,12 @@
         <v>0</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:10" hidden="1">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5725,12 +5742,12 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" spans="1:10" hidden="1">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5757,12 +5774,12 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="24">
-      <c r="A105" s="4" t="s">
-        <v>211</v>
+      <c r="A105" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="B105" s="5">
         <v>0</v>
@@ -5789,12 +5806,12 @@
         <v>0</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:10" hidden="1">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -5821,12 +5838,12 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:10" hidden="1">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -5853,12 +5870,12 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:10" hidden="1">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5885,12 +5902,12 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:10" hidden="1">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5917,12 +5934,12 @@
         <v>0.5</v>
       </c>
       <c r="J109" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -5949,12 +5966,12 @@
         <v>0.5</v>
       </c>
       <c r="J110" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:10" hidden="1">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -5981,12 +5998,12 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:10" hidden="1">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -6013,12 +6030,12 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:10" hidden="1">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -6045,12 +6062,12 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:10" hidden="1">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -6077,12 +6094,12 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:10" hidden="1">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -6109,12 +6126,12 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:10" hidden="1">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -6141,12 +6158,12 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:10" hidden="1">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -6173,12 +6190,12 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:10" hidden="1">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6205,12 +6222,12 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:10" hidden="1">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6237,12 +6254,12 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:10" hidden="1">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6269,12 +6286,12 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:10" hidden="1">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6301,12 +6318,12 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:10" hidden="1">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6333,12 +6350,12 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:10" hidden="1">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6365,12 +6382,12 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:10" hidden="1">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6397,12 +6414,12 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:10" hidden="1">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6429,12 +6446,12 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:10" hidden="1">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6461,12 +6478,12 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:10" hidden="1">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6493,12 +6510,12 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:10" hidden="1">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6525,12 +6542,12 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:10" hidden="1">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6557,12 +6574,12 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:10" hidden="1">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6589,12 +6606,12 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:10" hidden="1">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6621,12 +6638,12 @@
         <v>0.5</v>
       </c>
       <c r="J131" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:10" hidden="1">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6653,12 +6670,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J132" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:10" hidden="1">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6685,12 +6702,12 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:10" hidden="1">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6717,12 +6734,12 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:10" hidden="1">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6749,12 +6766,12 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:10" hidden="1">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6781,12 +6798,12 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:10" hidden="1">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6813,12 +6830,12 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:10" hidden="1">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6845,12 +6862,12 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:10" hidden="1">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6877,12 +6894,12 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:10" hidden="1">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6909,12 +6926,12 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:10" hidden="1">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6941,12 +6958,12 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:10" hidden="1">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6973,12 +6990,12 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:10" hidden="1">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -7005,12 +7022,12 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:10" hidden="1">
       <c r="A144" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -7037,12 +7054,12 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:10" hidden="1">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -7069,12 +7086,12 @@
         <v>0.5</v>
       </c>
       <c r="J145" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:10" hidden="1">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -7101,12 +7118,12 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:10" hidden="1">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -7133,12 +7150,12 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:10" hidden="1">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -7165,12 +7182,12 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:10" hidden="1">
       <c r="A149" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7197,12 +7214,12 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:10" hidden="1">
       <c r="A150" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -7229,12 +7246,12 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="24">
-      <c r="A151" s="7" t="s">
-        <v>649</v>
+      <c r="A151" s="6" t="s">
+        <v>639</v>
       </c>
       <c r="B151" s="5">
         <v>0</v>
@@ -7261,12 +7278,12 @@
         <v>0</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:10" hidden="1">
       <c r="A152" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -7293,12 +7310,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J152" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:10" hidden="1">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7325,12 +7342,12 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="24">
-      <c r="A154" s="6" t="s">
-        <v>648</v>
+      <c r="A154" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="B154" s="5">
         <v>0</v>
@@ -7357,12 +7374,12 @@
         <v>0</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:10" hidden="1">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7389,12 +7406,12 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:10" hidden="1">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7421,12 +7438,12 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:10" hidden="1">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7453,12 +7470,12 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:10" hidden="1">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -7485,12 +7502,12 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:10" hidden="1">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7517,12 +7534,12 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:10" hidden="1">
       <c r="A160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7549,12 +7566,12 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="161" spans="1:10" hidden="1">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7581,12 +7598,12 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="162" spans="1:10" hidden="1">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7613,12 +7630,12 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="163" spans="1:10" hidden="1">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7645,12 +7662,12 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:10" hidden="1">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7677,12 +7694,12 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:10" hidden="1">
       <c r="A165" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -7709,12 +7726,12 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:10" hidden="1">
       <c r="A166" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7741,12 +7758,12 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:10" hidden="1">
       <c r="A167" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -7773,12 +7790,12 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:10" hidden="1">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -7805,12 +7822,12 @@
         <v>0.5</v>
       </c>
       <c r="J168" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:10" hidden="1">
       <c r="A169" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -7837,12 +7854,12 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:10" hidden="1">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -7869,12 +7886,12 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" spans="1:10" hidden="1">
       <c r="A171" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -7901,12 +7918,12 @@
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:10" hidden="1">
       <c r="A172" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -7933,12 +7950,12 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="173" spans="1:10" hidden="1">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -7965,12 +7982,12 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="174" spans="1:10" hidden="1">
       <c r="A174" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -7997,12 +8014,12 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:10" hidden="1">
       <c r="A175" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -8029,12 +8046,12 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:10" hidden="1">
       <c r="A176" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8061,12 +8078,12 @@
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:10" hidden="1">
       <c r="A177" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8093,12 +8110,12 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:10" hidden="1">
       <c r="A178" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8125,12 +8142,12 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:10" hidden="1">
       <c r="A179" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -8157,12 +8174,12 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:10" hidden="1">
       <c r="A180" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -8189,12 +8206,12 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:10" hidden="1">
       <c r="A181" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -8221,12 +8238,12 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:10" hidden="1">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -8253,12 +8270,12 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:10" hidden="1">
       <c r="A183" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -8285,12 +8302,12 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:10" hidden="1">
       <c r="A184" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -8317,12 +8334,12 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:10" hidden="1">
       <c r="A185" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8349,12 +8366,12 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="186" spans="1:10" hidden="1">
       <c r="A186" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8381,12 +8398,12 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:10" hidden="1">
       <c r="A187" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8413,12 +8430,12 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:10" hidden="1">
       <c r="A188" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8445,12 +8462,12 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:10" hidden="1">
       <c r="A189" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8477,12 +8494,12 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:10" hidden="1">
       <c r="A190" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -8509,12 +8526,12 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:10" hidden="1">
       <c r="A191" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -8541,12 +8558,12 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:10" hidden="1">
       <c r="A192" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8573,12 +8590,12 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:10" hidden="1">
       <c r="A193" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -8605,12 +8622,12 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="24">
-      <c r="A194" s="4" t="s">
-        <v>387</v>
+      <c r="A194" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="B194" s="5">
         <v>0</v>
@@ -8637,12 +8654,12 @@
         <v>0</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:10" hidden="1">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -8669,12 +8686,12 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:10" hidden="1">
       <c r="A196" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -8701,12 +8718,12 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:10" hidden="1">
       <c r="A197" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8733,12 +8750,12 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" spans="1:10" hidden="1">
       <c r="A198" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8765,12 +8782,12 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199" spans="1:10" hidden="1">
       <c r="A199" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -8797,12 +8814,12 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="1:10" hidden="1">
       <c r="A200" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8829,12 +8846,12 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="201" spans="1:10" hidden="1">
       <c r="A201" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -8861,12 +8878,12 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:10" hidden="1">
       <c r="A202" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -8893,12 +8910,12 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:10" hidden="1">
       <c r="A203" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8925,12 +8942,12 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:10" hidden="1">
       <c r="A204" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8957,12 +8974,12 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="205" spans="1:10" hidden="1">
       <c r="A205" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -8989,12 +9006,12 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="206" spans="1:10" hidden="1">
       <c r="A206" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -9021,12 +9038,12 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="207" spans="1:10" hidden="1">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -9053,12 +9070,12 @@
         <v>0.5</v>
       </c>
       <c r="J207" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:10" hidden="1">
       <c r="A208" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -9085,12 +9102,12 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="209" spans="1:10" hidden="1">
       <c r="A209" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -9117,12 +9134,12 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="210" spans="1:10" hidden="1">
       <c r="A210" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -9149,12 +9166,12 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="211" spans="1:10" hidden="1">
       <c r="A211" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -9181,12 +9198,12 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="212" spans="1:10" hidden="1">
       <c r="A212" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -9213,12 +9230,12 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="213" spans="1:10" hidden="1">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -9245,12 +9262,12 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214" spans="1:10" hidden="1">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -9277,12 +9294,12 @@
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:10" hidden="1">
       <c r="A215" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -9309,12 +9326,12 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:10" hidden="1">
       <c r="A216" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -9341,12 +9358,12 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="217" spans="1:10" hidden="1">
       <c r="A217" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -9373,12 +9390,12 @@
         <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="218" spans="1:10" hidden="1">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -9405,12 +9422,12 @@
         <v>0.5</v>
       </c>
       <c r="J218" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:10" hidden="1">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -9437,12 +9454,12 @@
         <v>0.5</v>
       </c>
       <c r="J219" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="24">
-      <c r="A220" s="4" t="s">
-        <v>647</v>
+      <c r="A220" s="6" t="s">
+        <v>637</v>
       </c>
       <c r="B220" s="5">
         <v>0</v>
@@ -9469,12 +9486,12 @@
         <v>0</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="221" spans="1:10" hidden="1">
       <c r="A221" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -9501,12 +9518,12 @@
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:10" hidden="1">
       <c r="A222" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -9533,12 +9550,12 @@
         <v>0.5</v>
       </c>
       <c r="J222" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:10" hidden="1">
       <c r="A223" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -9565,12 +9582,12 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="24">
-      <c r="A224" s="4" t="s">
-        <v>446</v>
+      <c r="A224" s="6" t="s">
+        <v>650</v>
       </c>
       <c r="B224" s="5">
         <v>0</v>
@@ -9597,12 +9614,12 @@
         <v>0</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="1:10" hidden="1">
       <c r="A225" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -9629,12 +9646,12 @@
         <v>0.5</v>
       </c>
       <c r="J225" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="24">
-      <c r="A226" s="4" t="s">
-        <v>450</v>
+      <c r="A226" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="B226" s="5">
         <v>0</v>
@@ -9661,12 +9678,12 @@
         <v>0</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="227" spans="1:10" hidden="1">
       <c r="A227" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -9693,12 +9710,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J227" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:10" hidden="1">
       <c r="A228" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -9725,12 +9742,12 @@
         <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:10" hidden="1">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -9757,12 +9774,12 @@
         <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="1:10" hidden="1">
       <c r="A230" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -9789,12 +9806,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J230" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="24">
       <c r="A231" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B231" s="5">
         <v>0</v>
@@ -9821,12 +9838,12 @@
         <v>0</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="24">
       <c r="A232" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B232" s="5">
         <v>0</v>
@@ -9853,12 +9870,12 @@
         <v>0</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:10" hidden="1">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -9885,12 +9902,12 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:10" hidden="1">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -9917,12 +9934,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J234" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:10" hidden="1">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -9949,12 +9966,12 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="236" spans="1:10" hidden="1">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -9981,12 +9998,12 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:10" hidden="1">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -10013,12 +10030,12 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:10" hidden="1">
       <c r="A238" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -10045,12 +10062,12 @@
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:10" hidden="1">
       <c r="A239" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -10077,12 +10094,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J239" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:10" hidden="1">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -10109,12 +10126,12 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:10" hidden="1">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -10141,12 +10158,12 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:10" hidden="1">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -10173,12 +10190,12 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:10" hidden="1">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -10205,12 +10222,12 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:10" hidden="1">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -10237,12 +10254,12 @@
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:10" hidden="1">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -10269,12 +10286,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J245" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="24">
-      <c r="A246" s="4" t="s">
-        <v>488</v>
+      <c r="A246" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="B246" s="5">
         <v>0</v>
@@ -10301,12 +10318,12 @@
         <v>0</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="1:10" hidden="1">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -10333,12 +10350,12 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="248" spans="1:10" hidden="1">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -10365,12 +10382,12 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:10" hidden="1">
       <c r="A249" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -10397,12 +10414,12 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:10" hidden="1">
       <c r="A250" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B250" s="1">
         <v>0</v>
@@ -10429,12 +10446,12 @@
         <v>0.5</v>
       </c>
       <c r="J250" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="251" spans="1:10" hidden="1">
       <c r="A251" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -10461,12 +10478,12 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="24">
-      <c r="A252" s="4" t="s">
-        <v>499</v>
+      <c r="A252" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="B252" s="5">
         <v>0</v>
@@ -10493,12 +10510,12 @@
         <v>0</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:10" hidden="1">
       <c r="A253" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -10525,12 +10542,12 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:10" hidden="1">
       <c r="A254" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -10557,12 +10574,12 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="255" spans="1:10" hidden="1">
       <c r="A255" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -10589,12 +10606,12 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="256" spans="1:10" hidden="1">
       <c r="A256" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -10621,12 +10638,12 @@
         <v>0.5</v>
       </c>
       <c r="J256" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="257" spans="1:10" hidden="1">
       <c r="A257" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -10653,12 +10670,12 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1">
       <c r="A258" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -10685,12 +10702,12 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:10" hidden="1">
       <c r="A259" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -10717,12 +10734,12 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1">
       <c r="A260" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -10749,12 +10766,12 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1">
       <c r="A261" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -10781,12 +10798,12 @@
         <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1">
       <c r="A262" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -10813,12 +10830,12 @@
         <v>0.5</v>
       </c>
       <c r="J262" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="263" spans="1:10" hidden="1">
       <c r="A263" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -10845,12 +10862,12 @@
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="264" spans="1:10" hidden="1">
       <c r="A264" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -10877,12 +10894,12 @@
         <v>0.5</v>
       </c>
       <c r="J264" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" spans="1:10" hidden="1">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -10909,12 +10926,12 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266" spans="1:10" hidden="1">
       <c r="A266" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -10941,12 +10958,12 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -10973,12 +10990,12 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="268" spans="1:10" hidden="1">
       <c r="A268" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -11005,12 +11022,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J268" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:10" hidden="1">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -11037,12 +11054,12 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="1:10" hidden="1">
       <c r="A270" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -11069,12 +11086,12 @@
         <v>0.5</v>
       </c>
       <c r="J270" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:10" hidden="1">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -11101,12 +11118,12 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:10" hidden="1">
       <c r="A272" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -11133,12 +11150,12 @@
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="273" spans="1:10" hidden="1">
       <c r="A273" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -11165,12 +11182,12 @@
         <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="274" spans="1:10" hidden="1">
       <c r="A274" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -11197,12 +11214,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J274" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="275" spans="1:10" hidden="1">
       <c r="A275" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -11229,12 +11246,12 @@
         <v>0.5</v>
       </c>
       <c r="J275" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="276" spans="1:10" hidden="1">
       <c r="A276" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -11261,12 +11278,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J276" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:10" hidden="1">
       <c r="A277" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -11293,12 +11310,12 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="278" spans="1:10" hidden="1">
       <c r="A278" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -11325,12 +11342,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J278" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="279" spans="1:10" hidden="1">
       <c r="A279" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -11357,12 +11374,12 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:10" hidden="1">
       <c r="A280" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -11389,12 +11406,12 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="1:10" hidden="1">
       <c r="A281" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -11421,12 +11438,12 @@
         <v>0.5</v>
       </c>
       <c r="J281" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="282" spans="1:10" hidden="1">
       <c r="A282" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -11453,12 +11470,12 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="283" spans="1:10" hidden="1">
       <c r="A283" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -11485,12 +11502,12 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="1:10" hidden="1">
       <c r="A284" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
@@ -11517,12 +11534,12 @@
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="285" spans="1:10" hidden="1">
       <c r="A285" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -11549,12 +11566,12 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="286" spans="1:10" hidden="1">
       <c r="A286" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -11581,12 +11598,12 @@
         <v>0.5</v>
       </c>
       <c r="J286" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="287" spans="1:10" hidden="1">
       <c r="A287" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -11613,12 +11630,12 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="288" spans="1:10" hidden="1">
       <c r="A288" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -11645,12 +11662,12 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="289" spans="1:10" hidden="1">
       <c r="A289" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B289" s="1">
         <v>0</v>
@@ -11677,12 +11694,12 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:10" hidden="1">
       <c r="A290" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -11709,12 +11726,12 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="291" spans="1:10" hidden="1">
       <c r="A291" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -11741,12 +11758,12 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="292" spans="1:10" hidden="1">
       <c r="A292" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -11773,12 +11790,12 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="293" spans="1:10" hidden="1">
       <c r="A293" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -11805,12 +11822,12 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:10" hidden="1">
       <c r="A294" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -11837,12 +11854,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J294" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="295" spans="1:10" hidden="1">
       <c r="A295" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -11869,12 +11886,12 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="296" spans="1:10" hidden="1">
       <c r="A296" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -11901,12 +11918,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J296" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:10" hidden="1">
       <c r="A297" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -11933,12 +11950,12 @@
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="298" spans="1:10" hidden="1">
       <c r="A298" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -11965,12 +11982,12 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="299" spans="1:10" hidden="1">
       <c r="A299" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -11997,12 +12014,12 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="300" spans="1:10" hidden="1">
       <c r="A300" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -12029,12 +12046,12 @@
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="301" spans="1:10" hidden="1">
       <c r="A301" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -12061,12 +12078,12 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="302" spans="1:10" hidden="1">
       <c r="A302" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -12093,12 +12110,12 @@
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="303" spans="1:10" hidden="1">
       <c r="A303" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -12125,12 +12142,12 @@
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="304" spans="1:10" hidden="1">
       <c r="A304" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -12157,12 +12174,12 @@
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="305" spans="1:10" hidden="1">
       <c r="A305" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -12189,12 +12206,12 @@
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="306" spans="1:10" hidden="1">
       <c r="A306" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -12221,12 +12238,12 @@
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:10" hidden="1">
       <c r="A307" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -12253,12 +12270,12 @@
         <v>0.5</v>
       </c>
       <c r="J307" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="308" spans="1:10" hidden="1">
       <c r="A308" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -12285,12 +12302,12 @@
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="309" spans="1:10" hidden="1">
       <c r="A309" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -12317,12 +12334,12 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="310" spans="1:10" hidden="1">
       <c r="A310" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -12349,12 +12366,12 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="311" spans="1:10" hidden="1">
       <c r="A311" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -12381,12 +12398,12 @@
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="312" spans="1:10" hidden="1">
       <c r="A312" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -12413,12 +12430,12 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="313" spans="1:10" hidden="1">
       <c r="A313" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -12445,12 +12462,12 @@
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="314" spans="1:10" hidden="1">
       <c r="A314" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -12477,12 +12494,12 @@
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="315" spans="1:10" hidden="1">
       <c r="A315" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -12509,12 +12526,12 @@
         <v>0.5</v>
       </c>
       <c r="J315" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:10" hidden="1">
       <c r="A316" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -12541,12 +12558,12 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317" spans="1:10" hidden="1">
       <c r="A317" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -12573,12 +12590,12 @@
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="318" spans="1:10" hidden="1">
       <c r="A318" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -12605,12 +12622,12 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="319" spans="1:10" hidden="1">
       <c r="A319" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -12637,12 +12654,12 @@
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="320" spans="1:10" hidden="1">
       <c r="A320" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -12669,12 +12686,12 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="321" spans="1:10" hidden="1">
       <c r="A321" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -12701,12 +12718,12 @@
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="322" spans="1:10" hidden="1">
       <c r="A322" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -12733,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="323" spans="1:10" hidden="1">
